--- a/data/pca/factorExposure/factorExposure_2016-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01061330965028387</v>
+        <v>0.01264041213389059</v>
       </c>
       <c r="C2">
-        <v>0.05437591958481087</v>
+        <v>0.04027229807587676</v>
       </c>
       <c r="D2">
-        <v>-0.04277973147248337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06114970680184212</v>
+      </c>
+      <c r="E2">
+        <v>-0.0808442006130152</v>
+      </c>
+      <c r="F2">
+        <v>-0.06256250166683375</v>
+      </c>
+      <c r="G2">
+        <v>0.04347447294573784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03948135792291201</v>
+        <v>0.0237422274212132</v>
       </c>
       <c r="C3">
-        <v>0.1134931627400379</v>
+        <v>0.07108834770051026</v>
       </c>
       <c r="D3">
-        <v>-0.09433799563493457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07785535921376822</v>
+      </c>
+      <c r="E3">
+        <v>-0.06545948802034522</v>
+      </c>
+      <c r="F3">
+        <v>0.02441404598212627</v>
+      </c>
+      <c r="G3">
+        <v>-0.03524294326454535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05810121529756678</v>
+        <v>0.05604620987935167</v>
       </c>
       <c r="C4">
-        <v>0.06164799002448951</v>
+        <v>0.06462273737826972</v>
       </c>
       <c r="D4">
-        <v>-0.03397211734011418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05913615593878546</v>
+      </c>
+      <c r="E4">
+        <v>-0.08026924688458341</v>
+      </c>
+      <c r="F4">
+        <v>-0.07380397432141925</v>
+      </c>
+      <c r="G4">
+        <v>-0.03577008056072253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03820768539840237</v>
+        <v>0.03460945713891362</v>
       </c>
       <c r="C6">
-        <v>0.0389569762187449</v>
+        <v>0.02986025540044731</v>
       </c>
       <c r="D6">
-        <v>-0.03136054143871176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06048807257000957</v>
+      </c>
+      <c r="E6">
+        <v>-0.08187023989559115</v>
+      </c>
+      <c r="F6">
+        <v>-0.0485354944545911</v>
+      </c>
+      <c r="G6">
+        <v>-0.02158344145075609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02053850414843365</v>
+        <v>0.01722643185947571</v>
       </c>
       <c r="C7">
-        <v>0.04635816860967261</v>
+        <v>0.03839158582528442</v>
       </c>
       <c r="D7">
-        <v>0.002595754946149432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03784470648529846</v>
+      </c>
+      <c r="E7">
+        <v>-0.05856322750493538</v>
+      </c>
+      <c r="F7">
+        <v>-0.09401526723314574</v>
+      </c>
+      <c r="G7">
+        <v>-0.01027948838090841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004996376428033823</v>
+        <v>0.002787714623176678</v>
       </c>
       <c r="C8">
-        <v>0.03551698147654542</v>
+        <v>0.03175167584949262</v>
       </c>
       <c r="D8">
-        <v>-0.02502411738602645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03311556440890092</v>
+      </c>
+      <c r="E8">
+        <v>-0.05460825280706313</v>
+      </c>
+      <c r="F8">
+        <v>-0.03087848397317466</v>
+      </c>
+      <c r="G8">
+        <v>-0.006557329299705524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03225129078862873</v>
+        <v>0.03597387235581338</v>
       </c>
       <c r="C9">
-        <v>0.04791195667963985</v>
+        <v>0.05137453519406642</v>
       </c>
       <c r="D9">
-        <v>-0.01792161744318698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04291184107042263</v>
+      </c>
+      <c r="E9">
+        <v>-0.06867829253138467</v>
+      </c>
+      <c r="F9">
+        <v>-0.07984261381329652</v>
+      </c>
+      <c r="G9">
+        <v>-0.02193553225767425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08332521648479575</v>
+        <v>0.1040601119530511</v>
       </c>
       <c r="C10">
-        <v>-0.1886631408384278</v>
+        <v>-0.1940317662687525</v>
       </c>
       <c r="D10">
-        <v>0.008184694141694076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009174389897800681</v>
+      </c>
+      <c r="E10">
+        <v>-0.04498750552271673</v>
+      </c>
+      <c r="F10">
+        <v>-0.03220758959392219</v>
+      </c>
+      <c r="G10">
+        <v>-0.0126012548934592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03928340112079791</v>
+        <v>0.03524636143770376</v>
       </c>
       <c r="C11">
-        <v>0.05374954390058613</v>
+        <v>0.04904025595278863</v>
       </c>
       <c r="D11">
-        <v>-0.01765821021579317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03430275950453158</v>
+      </c>
+      <c r="E11">
+        <v>-0.02324563449067193</v>
+      </c>
+      <c r="F11">
+        <v>-0.06345191847752588</v>
+      </c>
+      <c r="G11">
+        <v>-0.01739154609798854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04113480641826134</v>
+        <v>0.0373090759739521</v>
       </c>
       <c r="C12">
-        <v>0.04876540676876882</v>
+        <v>0.04627542724827542</v>
       </c>
       <c r="D12">
-        <v>-0.006872173472740423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02792301185787398</v>
+      </c>
+      <c r="E12">
+        <v>-0.03152805599126517</v>
+      </c>
+      <c r="F12">
+        <v>-0.06402949071170935</v>
+      </c>
+      <c r="G12">
+        <v>-0.01379151006504693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01095335506308483</v>
+        <v>0.01009681313979941</v>
       </c>
       <c r="C13">
-        <v>0.052730792899905</v>
+        <v>0.04170673866673817</v>
       </c>
       <c r="D13">
-        <v>-0.01558493701549815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05037538580146009</v>
+      </c>
+      <c r="E13">
+        <v>-0.09349297274474898</v>
+      </c>
+      <c r="F13">
+        <v>-0.08716798966989681</v>
+      </c>
+      <c r="G13">
+        <v>-0.02042883676658409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006866709247431905</v>
+        <v>0.004089862404436578</v>
       </c>
       <c r="C14">
-        <v>0.041194320989919</v>
+        <v>0.03324896587764691</v>
       </c>
       <c r="D14">
-        <v>0.00923384994408164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02507801277072721</v>
+      </c>
+      <c r="E14">
+        <v>-0.04602687306220826</v>
+      </c>
+      <c r="F14">
+        <v>-0.08788527597870807</v>
+      </c>
+      <c r="G14">
+        <v>0.003763319815817938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002717984827924743</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004930323509496268</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007245772880658023</v>
+      </c>
+      <c r="E15">
+        <v>-0.003670984496248813</v>
+      </c>
+      <c r="F15">
+        <v>-0.005805820845028499</v>
+      </c>
+      <c r="G15">
+        <v>-0.0001897889826899244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03601379935007264</v>
+        <v>0.03331018885276976</v>
       </c>
       <c r="C16">
-        <v>0.04889009681400992</v>
+        <v>0.04511240201746026</v>
       </c>
       <c r="D16">
-        <v>-0.01210407266767131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02812849827942807</v>
+      </c>
+      <c r="E16">
+        <v>-0.03708197435480613</v>
+      </c>
+      <c r="F16">
+        <v>-0.06400814094068683</v>
+      </c>
+      <c r="G16">
+        <v>-0.00267674370216234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01805492053367794</v>
+        <v>0.01425582376889403</v>
       </c>
       <c r="C19">
-        <v>0.06625187463910157</v>
+        <v>0.04767627650366443</v>
       </c>
       <c r="D19">
-        <v>-0.08397485177710186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08791684473104867</v>
+      </c>
+      <c r="E19">
+        <v>-0.1049309686832355</v>
+      </c>
+      <c r="F19">
+        <v>-0.06215610266195419</v>
+      </c>
+      <c r="G19">
+        <v>0.02778010342769561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01438206112468096</v>
+        <v>0.01198191590363438</v>
       </c>
       <c r="C20">
-        <v>0.04827422288441778</v>
+        <v>0.0390017092160752</v>
       </c>
       <c r="D20">
-        <v>-0.01292224795461356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03560136661904473</v>
+      </c>
+      <c r="E20">
+        <v>-0.07426086633586865</v>
+      </c>
+      <c r="F20">
+        <v>-0.06874012003267665</v>
+      </c>
+      <c r="G20">
+        <v>-0.00642257795289687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008432457875563735</v>
+        <v>0.008085000839774977</v>
       </c>
       <c r="C21">
-        <v>0.04980193117268256</v>
+        <v>0.04220620014017898</v>
       </c>
       <c r="D21">
-        <v>-0.03714948334144531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06393513261371618</v>
+      </c>
+      <c r="E21">
+        <v>-0.1148640235311899</v>
+      </c>
+      <c r="F21">
+        <v>-0.1078395388265005</v>
+      </c>
+      <c r="G21">
+        <v>-0.006379367871846614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0006507837298436533</v>
+        <v>0.002541798952019294</v>
       </c>
       <c r="C22">
-        <v>0.0005670860161245136</v>
+        <v>0.02507924476737103</v>
       </c>
       <c r="D22">
-        <v>-0.001560945403505296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04214988530136776</v>
+      </c>
+      <c r="E22">
+        <v>-0.03700107462152359</v>
+      </c>
+      <c r="F22">
+        <v>-0.009015607574977326</v>
+      </c>
+      <c r="G22">
+        <v>-0.03743223581234933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0006563810469596655</v>
+        <v>0.002613652584083721</v>
       </c>
       <c r="C23">
-        <v>0.0005670997566124783</v>
+        <v>0.02523632328978571</v>
       </c>
       <c r="D23">
-        <v>-0.001568254952815763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04181274776634439</v>
+      </c>
+      <c r="E23">
+        <v>-0.03727364840699852</v>
+      </c>
+      <c r="F23">
+        <v>-0.008789538722368064</v>
+      </c>
+      <c r="G23">
+        <v>-0.03763482092629766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03278929163524593</v>
+        <v>0.0331359116050982</v>
       </c>
       <c r="C24">
-        <v>0.05070564877244019</v>
+        <v>0.0527885897035849</v>
       </c>
       <c r="D24">
-        <v>-0.01254684090338644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02837907106365841</v>
+      </c>
+      <c r="E24">
+        <v>-0.0382821806375649</v>
+      </c>
+      <c r="F24">
+        <v>-0.07016468712107878</v>
+      </c>
+      <c r="G24">
+        <v>-0.01006012401862124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0462020333613538</v>
+        <v>0.04275952345391673</v>
       </c>
       <c r="C25">
-        <v>0.06314816138667638</v>
+        <v>0.05728226531850758</v>
       </c>
       <c r="D25">
-        <v>-0.004473355300358985</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02728086711086558</v>
+      </c>
+      <c r="E25">
+        <v>-0.02980763478698597</v>
+      </c>
+      <c r="F25">
+        <v>-0.0733080736592734</v>
+      </c>
+      <c r="G25">
+        <v>-0.02773161135772515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01483786249878456</v>
+        <v>0.01421760717042448</v>
       </c>
       <c r="C26">
-        <v>0.01923761147170899</v>
+        <v>0.01738783697496666</v>
       </c>
       <c r="D26">
-        <v>-0.0009471372123185819</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02389354162238275</v>
+      </c>
+      <c r="E26">
+        <v>-0.0476071224850741</v>
+      </c>
+      <c r="F26">
+        <v>-0.06294993716862142</v>
+      </c>
+      <c r="G26">
+        <v>0.01364457155941053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09986154547680097</v>
+        <v>0.1401575267534652</v>
       </c>
       <c r="C28">
-        <v>-0.2396675757226239</v>
+        <v>-0.2472288282934529</v>
       </c>
       <c r="D28">
-        <v>0.01329306742081041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02668987235828364</v>
+      </c>
+      <c r="E28">
+        <v>-0.05994784633930632</v>
+      </c>
+      <c r="F28">
+        <v>-0.0523931638922028</v>
+      </c>
+      <c r="G28">
+        <v>-0.02208737187239008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006893361170330995</v>
+        <v>0.00544566571817926</v>
       </c>
       <c r="C29">
-        <v>0.03339770095514048</v>
+        <v>0.02954825072205262</v>
       </c>
       <c r="D29">
-        <v>0.01349840383032896</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01898290341687188</v>
+      </c>
+      <c r="E29">
+        <v>-0.04583738476681698</v>
+      </c>
+      <c r="F29">
+        <v>-0.08229919282023941</v>
+      </c>
+      <c r="G29">
+        <v>-0.009949423570332698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04212760575916315</v>
+        <v>0.03853395173423114</v>
       </c>
       <c r="C30">
-        <v>0.05586338282701639</v>
+        <v>0.0578844675145251</v>
       </c>
       <c r="D30">
-        <v>-0.07166792814311583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1006766721490594</v>
+      </c>
+      <c r="E30">
+        <v>-0.07019385147581805</v>
+      </c>
+      <c r="F30">
+        <v>-0.07814213224662106</v>
+      </c>
+      <c r="G30">
+        <v>0.0134704044686503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05527488248580369</v>
+        <v>0.0555553053348366</v>
       </c>
       <c r="C31">
-        <v>0.04643302475777913</v>
+        <v>0.06133631424335552</v>
       </c>
       <c r="D31">
-        <v>0.02191864224563833</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006835431333195252</v>
+      </c>
+      <c r="E31">
+        <v>-0.07001300448413483</v>
+      </c>
+      <c r="F31">
+        <v>-0.06251870009484069</v>
+      </c>
+      <c r="G31">
+        <v>-0.04674944287356295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001956348999162881</v>
+        <v>0.004994411364856077</v>
       </c>
       <c r="C32">
-        <v>0.03991712764560617</v>
+        <v>0.03262696479107085</v>
       </c>
       <c r="D32">
-        <v>-0.04842696098816528</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05641936035170419</v>
+      </c>
+      <c r="E32">
+        <v>-0.05335792601838794</v>
+      </c>
+      <c r="F32">
+        <v>-0.06357295789676658</v>
+      </c>
+      <c r="G32">
+        <v>0.01251932647874027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0258178509613896</v>
+        <v>0.02291558593379739</v>
       </c>
       <c r="C33">
-        <v>0.06171655870694714</v>
+        <v>0.05377960641319078</v>
       </c>
       <c r="D33">
-        <v>-0.05228935686070039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08013978621954726</v>
+      </c>
+      <c r="E33">
+        <v>-0.08662190550773527</v>
+      </c>
+      <c r="F33">
+        <v>-0.1083385516360061</v>
+      </c>
+      <c r="G33">
+        <v>-0.02032522379029402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04378906478414339</v>
+        <v>0.03988363154094153</v>
       </c>
       <c r="C34">
-        <v>0.06761387096345514</v>
+        <v>0.06518948278040217</v>
       </c>
       <c r="D34">
-        <v>-0.01864357607041831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03839248153681424</v>
+      </c>
+      <c r="E34">
+        <v>-0.01059899120288606</v>
+      </c>
+      <c r="F34">
+        <v>-0.07849951749196768</v>
+      </c>
+      <c r="G34">
+        <v>-0.01353662321098043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01436855236216792</v>
+        <v>0.01332204353139886</v>
       </c>
       <c r="C36">
-        <v>0.01698986708983738</v>
+        <v>0.01275090225419687</v>
       </c>
       <c r="D36">
-        <v>-0.001202612216498162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02648322018130213</v>
+      </c>
+      <c r="E36">
+        <v>-0.05617186480776337</v>
+      </c>
+      <c r="F36">
+        <v>-0.06760763029577171</v>
+      </c>
+      <c r="G36">
+        <v>-0.009265071902084535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02786697191720338</v>
+        <v>0.02210553081093845</v>
       </c>
       <c r="C38">
-        <v>0.02984721438168268</v>
+        <v>0.02261262026998457</v>
       </c>
       <c r="D38">
-        <v>0.008340319019795353</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02285798756052006</v>
+      </c>
+      <c r="E38">
+        <v>-0.04713294854788868</v>
+      </c>
+      <c r="F38">
+        <v>-0.05403307659327754</v>
+      </c>
+      <c r="G38">
+        <v>-0.003176216012548177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04273416577008325</v>
+        <v>0.03810821104751091</v>
       </c>
       <c r="C39">
-        <v>0.0666452469800749</v>
+        <v>0.06431137794585363</v>
       </c>
       <c r="D39">
-        <v>-0.02212110561391665</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05270700039396165</v>
+      </c>
+      <c r="E39">
+        <v>-0.0421549856806033</v>
+      </c>
+      <c r="F39">
+        <v>-0.07983965294703087</v>
+      </c>
+      <c r="G39">
+        <v>0.01168364751019472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01191029361306826</v>
+        <v>0.01260300722160054</v>
       </c>
       <c r="C40">
-        <v>0.05093773960790953</v>
+        <v>0.03701507232752498</v>
       </c>
       <c r="D40">
-        <v>-0.01687741637944323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03349111595977476</v>
+      </c>
+      <c r="E40">
+        <v>-0.08186715440357903</v>
+      </c>
+      <c r="F40">
+        <v>-0.06390866073559766</v>
+      </c>
+      <c r="G40">
+        <v>-0.03847076377977701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.021444758792441</v>
+        <v>0.01899654661279459</v>
       </c>
       <c r="C41">
-        <v>0.01298121052350231</v>
+        <v>0.01021431831865841</v>
       </c>
       <c r="D41">
-        <v>-0.002896340806905033</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0171015972923803</v>
+      </c>
+      <c r="E41">
+        <v>-0.05498253335449881</v>
+      </c>
+      <c r="F41">
+        <v>-0.05763995533036897</v>
+      </c>
+      <c r="G41">
+        <v>-0.002591878387086822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03766535609386755</v>
+        <v>0.02858420288172651</v>
       </c>
       <c r="C43">
-        <v>0.03437083804864074</v>
+        <v>0.02490296944635213</v>
       </c>
       <c r="D43">
-        <v>-0.03049247542332276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04429298073983062</v>
+      </c>
+      <c r="E43">
+        <v>-0.06948100327779871</v>
+      </c>
+      <c r="F43">
+        <v>-0.06454502623884639</v>
+      </c>
+      <c r="G43">
+        <v>-0.02052850808776539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01058063353967663</v>
+        <v>0.01246930511791187</v>
       </c>
       <c r="C44">
-        <v>0.06736328449041235</v>
+        <v>0.04960726454852211</v>
       </c>
       <c r="D44">
-        <v>-0.01219211751766899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0380001730431359</v>
+      </c>
+      <c r="E44">
+        <v>-0.08578923405570527</v>
+      </c>
+      <c r="F44">
+        <v>-0.06751133579406787</v>
+      </c>
+      <c r="G44">
+        <v>0.006859309392261813</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.007250839709436635</v>
+        <v>0.008407745878646584</v>
       </c>
       <c r="C46">
-        <v>0.03009763246251542</v>
+        <v>0.02943245426851342</v>
       </c>
       <c r="D46">
-        <v>0.01484384742491726</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01372583221413552</v>
+      </c>
+      <c r="E46">
+        <v>-0.0561723600196023</v>
+      </c>
+      <c r="F46">
+        <v>-0.09548633492797999</v>
+      </c>
+      <c r="G46">
+        <v>-0.003332569642198897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08217564532859636</v>
+        <v>0.08712561410875827</v>
       </c>
       <c r="C47">
-        <v>0.07316525380805919</v>
+        <v>0.08229838731547454</v>
       </c>
       <c r="D47">
-        <v>0.02325314858849859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01386089024456459</v>
+      </c>
+      <c r="E47">
+        <v>-0.07198224502291249</v>
+      </c>
+      <c r="F47">
+        <v>-0.06732685013876329</v>
+      </c>
+      <c r="G47">
+        <v>-0.05146378149353766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0175798683829628</v>
+        <v>0.01555478140317653</v>
       </c>
       <c r="C48">
-        <v>0.01639046497792356</v>
+        <v>0.01702313776204823</v>
       </c>
       <c r="D48">
-        <v>0.01409676458629086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01487840119737112</v>
+      </c>
+      <c r="E48">
+        <v>-0.0677250230983321</v>
+      </c>
+      <c r="F48">
+        <v>-0.08457109484142203</v>
+      </c>
+      <c r="G48">
+        <v>-0.008895685950243799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07903150883637651</v>
+        <v>0.07004905589122512</v>
       </c>
       <c r="C50">
-        <v>0.08246428046357931</v>
+        <v>0.07575501589118389</v>
       </c>
       <c r="D50">
-        <v>0.02320144073951861</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0008274904128068428</v>
+      </c>
+      <c r="E50">
+        <v>-0.07587394033582082</v>
+      </c>
+      <c r="F50">
+        <v>-0.04788060237169216</v>
+      </c>
+      <c r="G50">
+        <v>-0.06891300797740098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01394917184525361</v>
+        <v>0.009805512043397697</v>
       </c>
       <c r="C51">
-        <v>0.05184507074020016</v>
+        <v>0.03267219877123547</v>
       </c>
       <c r="D51">
-        <v>-0.0290768543881233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04905743716378944</v>
+      </c>
+      <c r="E51">
+        <v>-0.04268040693807897</v>
+      </c>
+      <c r="F51">
+        <v>-0.07124746855736062</v>
+      </c>
+      <c r="G51">
+        <v>0.01919807114825562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07969893542903873</v>
+        <v>0.09261133563329042</v>
       </c>
       <c r="C53">
-        <v>0.079953075634763</v>
+        <v>0.08907164356233535</v>
       </c>
       <c r="D53">
-        <v>0.03908878652308602</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0404155821650276</v>
+      </c>
+      <c r="E53">
+        <v>-0.06964367401928684</v>
+      </c>
+      <c r="F53">
+        <v>-0.07655523808206338</v>
+      </c>
+      <c r="G53">
+        <v>-0.06464310781342066</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03041832988103543</v>
+        <v>0.02729601955327485</v>
       </c>
       <c r="C54">
-        <v>0.03190766599486491</v>
+        <v>0.02887730062175786</v>
       </c>
       <c r="D54">
-        <v>-0.005780401747392775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03115687006526537</v>
+      </c>
+      <c r="E54">
+        <v>-0.05389620177004473</v>
+      </c>
+      <c r="F54">
+        <v>-0.09274431752831434</v>
+      </c>
+      <c r="G54">
+        <v>-0.01110004518339181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07361000153999363</v>
+        <v>0.08439914656864561</v>
       </c>
       <c r="C55">
-        <v>0.06173075714699718</v>
+        <v>0.07237863562086796</v>
       </c>
       <c r="D55">
-        <v>0.04738300758345533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04698199472059296</v>
+      </c>
+      <c r="E55">
+        <v>-0.05125574010996246</v>
+      </c>
+      <c r="F55">
+        <v>-0.05303089966712135</v>
+      </c>
+      <c r="G55">
+        <v>-0.05352167549657962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1430521548672834</v>
+        <v>0.1462382963928281</v>
       </c>
       <c r="C56">
-        <v>0.09998714767912655</v>
+        <v>0.1100691043304231</v>
       </c>
       <c r="D56">
-        <v>0.03711417895283042</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04287831346242017</v>
+      </c>
+      <c r="E56">
+        <v>-0.05335146461532684</v>
+      </c>
+      <c r="F56">
+        <v>-0.0371475011232321</v>
+      </c>
+      <c r="G56">
+        <v>-0.05906726167265421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.000896661000757237</v>
+        <v>0.0006593728823998461</v>
       </c>
       <c r="C57">
-        <v>-0.001601042737843227</v>
+        <v>-0.0009348419373714866</v>
       </c>
       <c r="D57">
-        <v>-0.004753155475427152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.003125914280599538</v>
+      </c>
+      <c r="E57">
+        <v>-0.003552323212800599</v>
+      </c>
+      <c r="F57">
+        <v>-0.00237031812985038</v>
+      </c>
+      <c r="G57">
+        <v>-0.001792063058682204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04080254240888671</v>
+        <v>0.02449237399565446</v>
       </c>
       <c r="C58">
-        <v>0.02039448334857547</v>
+        <v>0.0197335807345875</v>
       </c>
       <c r="D58">
-        <v>-0.6379061426121947</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.388499032056758</v>
+      </c>
+      <c r="E58">
+        <v>-0.633502231126732</v>
+      </c>
+      <c r="F58">
+        <v>0.5862468299797174</v>
+      </c>
+      <c r="G58">
+        <v>0.1094064630140516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1363599464791893</v>
+        <v>0.1465398248802696</v>
       </c>
       <c r="C59">
-        <v>-0.1944357539715939</v>
+        <v>-0.1852667219282088</v>
       </c>
       <c r="D59">
-        <v>-0.01723866644090298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02425108486623115</v>
+      </c>
+      <c r="E59">
+        <v>-0.02670999781639801</v>
+      </c>
+      <c r="F59">
+        <v>-0.01922311729229943</v>
+      </c>
+      <c r="G59">
+        <v>0.03113230004164005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3079036228151704</v>
+        <v>0.2803161668799888</v>
       </c>
       <c r="C60">
-        <v>0.1045899065441531</v>
+        <v>0.103084105717184</v>
       </c>
       <c r="D60">
-        <v>-0.1692550124539162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2461632758052062</v>
+      </c>
+      <c r="E60">
+        <v>0.2584987326551401</v>
+      </c>
+      <c r="F60">
+        <v>0.07538802221754258</v>
+      </c>
+      <c r="G60">
+        <v>-0.04533810703172219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04053946144575192</v>
+        <v>0.03926841457894241</v>
       </c>
       <c r="C61">
-        <v>0.0642565963835656</v>
+        <v>0.06026495182094028</v>
       </c>
       <c r="D61">
-        <v>-0.01809116770858781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04471763714666899</v>
+      </c>
+      <c r="E61">
+        <v>-0.04618215493885233</v>
+      </c>
+      <c r="F61">
+        <v>-0.07095015287965292</v>
+      </c>
+      <c r="G61">
+        <v>-0.01313904090393993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01476215125764157</v>
+        <v>0.01430891996408759</v>
       </c>
       <c r="C63">
-        <v>0.03477803308328616</v>
+        <v>0.03204786439673457</v>
       </c>
       <c r="D63">
-        <v>0.00902104801027797</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02065693148572819</v>
+      </c>
+      <c r="E63">
+        <v>-0.0586441574733295</v>
+      </c>
+      <c r="F63">
+        <v>-0.06352784209483174</v>
+      </c>
+      <c r="G63">
+        <v>-0.02866046043095808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04764227749189234</v>
+        <v>0.05511543018505114</v>
       </c>
       <c r="C64">
-        <v>0.04859286317623721</v>
+        <v>0.05718556073694855</v>
       </c>
       <c r="D64">
-        <v>-0.007837287793074198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01067479769489239</v>
+      </c>
+      <c r="E64">
+        <v>-0.04065531672000564</v>
+      </c>
+      <c r="F64">
+        <v>-0.08252745033664594</v>
+      </c>
+      <c r="G64">
+        <v>-0.01291190422774132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08358918926707426</v>
+        <v>0.06800284679242301</v>
       </c>
       <c r="C65">
-        <v>0.03303471402704632</v>
+        <v>0.03056975409715983</v>
       </c>
       <c r="D65">
-        <v>-0.05140472635586685</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08234313310647626</v>
+      </c>
+      <c r="E65">
+        <v>-0.04417820881503595</v>
+      </c>
+      <c r="F65">
+        <v>0.001370235108239922</v>
+      </c>
+      <c r="G65">
+        <v>-0.000449980388430101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05820975985555104</v>
+        <v>0.04946271074382075</v>
       </c>
       <c r="C66">
-        <v>0.09272299684328376</v>
+        <v>0.08362691150793715</v>
       </c>
       <c r="D66">
-        <v>-0.04374027063284149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07758382166154575</v>
+      </c>
+      <c r="E66">
+        <v>-0.04959825823686548</v>
+      </c>
+      <c r="F66">
+        <v>-0.0824313928807436</v>
+      </c>
+      <c r="G66">
+        <v>-0.0048577136766818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04998444544764018</v>
+        <v>0.044206481386279</v>
       </c>
       <c r="C67">
-        <v>0.03149054088363461</v>
+        <v>0.02775500922215361</v>
       </c>
       <c r="D67">
-        <v>0.01139759511411511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008903296016471766</v>
+      </c>
+      <c r="E67">
+        <v>-0.02532347939961974</v>
+      </c>
+      <c r="F67">
+        <v>-0.04525488927336623</v>
+      </c>
+      <c r="G67">
+        <v>-0.01011666390346241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1360375515372516</v>
+        <v>0.1558223462712625</v>
       </c>
       <c r="C68">
-        <v>-0.2782871899115612</v>
+        <v>-0.2440109703334266</v>
       </c>
       <c r="D68">
-        <v>0.01864129974746917</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02103391133528409</v>
+      </c>
+      <c r="E68">
+        <v>-0.04156798303178429</v>
+      </c>
+      <c r="F68">
+        <v>-0.01144062348251815</v>
+      </c>
+      <c r="G68">
+        <v>-0.009678866224587435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08895849133870204</v>
+        <v>0.08621723579151251</v>
       </c>
       <c r="C69">
-        <v>0.07237680260542836</v>
+        <v>0.08951362980688063</v>
       </c>
       <c r="D69">
-        <v>0.03202822161083815</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.004545212479179446</v>
+      </c>
+      <c r="E69">
+        <v>-0.05628077664319071</v>
+      </c>
+      <c r="F69">
+        <v>-0.0863496157586444</v>
+      </c>
+      <c r="G69">
+        <v>-0.03084644387995235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1232072813629348</v>
+        <v>0.1460518067039111</v>
       </c>
       <c r="C71">
-        <v>-0.246496668183305</v>
+        <v>-0.2347319530996269</v>
       </c>
       <c r="D71">
-        <v>-0.01519245169890966</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.004045847885295163</v>
+      </c>
+      <c r="E71">
+        <v>-0.06634671066423525</v>
+      </c>
+      <c r="F71">
+        <v>-0.04726535068517232</v>
+      </c>
+      <c r="G71">
+        <v>-0.03868385226644149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08998426682011182</v>
+        <v>0.0986718108720694</v>
       </c>
       <c r="C72">
-        <v>0.05921767517747711</v>
+        <v>0.0592106143387152</v>
       </c>
       <c r="D72">
-        <v>-0.01237202656969038</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03376128820978362</v>
+      </c>
+      <c r="E72">
+        <v>-0.02569242551938117</v>
+      </c>
+      <c r="F72">
+        <v>-0.06458133615406775</v>
+      </c>
+      <c r="G72">
+        <v>-0.03542065843185915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.403329324250228</v>
+        <v>0.3428851176777963</v>
       </c>
       <c r="C73">
-        <v>0.0535390111732076</v>
+        <v>0.07014137158471614</v>
       </c>
       <c r="D73">
-        <v>-0.3962092445860543</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4892158409290538</v>
+      </c>
+      <c r="E73">
+        <v>0.4672837400346093</v>
+      </c>
+      <c r="F73">
+        <v>0.2185153466975759</v>
+      </c>
+      <c r="G73">
+        <v>-0.1050884511465506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1026269540057233</v>
+        <v>0.1082392252975101</v>
       </c>
       <c r="C74">
-        <v>0.09714110836012479</v>
+        <v>0.09740420544830757</v>
       </c>
       <c r="D74">
-        <v>0.01999083974482365</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03073492581439411</v>
+      </c>
+      <c r="E74">
+        <v>-0.06822696288060394</v>
+      </c>
+      <c r="F74">
+        <v>-0.03666511836302482</v>
+      </c>
+      <c r="G74">
+        <v>-0.07220622967680727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2504378500245194</v>
+        <v>0.2556376918705551</v>
       </c>
       <c r="C75">
-        <v>0.1092624976541565</v>
+        <v>0.1346361410013933</v>
       </c>
       <c r="D75">
-        <v>0.0902734534009072</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1255199366939777</v>
+      </c>
+      <c r="E75">
+        <v>-0.06529840946892293</v>
+      </c>
+      <c r="F75">
+        <v>-0.0158515222214781</v>
+      </c>
+      <c r="G75">
+        <v>-0.07655631695998338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1094004937946786</v>
+        <v>0.1246817569148556</v>
       </c>
       <c r="C76">
-        <v>0.08889066621996326</v>
+        <v>0.09894805095021036</v>
       </c>
       <c r="D76">
-        <v>0.05177334007228074</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06026967543107692</v>
+      </c>
+      <c r="E76">
+        <v>-0.07798885489715132</v>
+      </c>
+      <c r="F76">
+        <v>-0.05931443368722072</v>
+      </c>
+      <c r="G76">
+        <v>-0.05831086083759688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07505878243506951</v>
+        <v>0.05964517128036095</v>
       </c>
       <c r="C77">
-        <v>0.05894550636088797</v>
+        <v>0.06950795686543508</v>
       </c>
       <c r="D77">
-        <v>-0.05336521136866119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06231305627514332</v>
+      </c>
+      <c r="E77">
+        <v>-0.09621007320592231</v>
+      </c>
+      <c r="F77">
+        <v>-0.1095845483630333</v>
+      </c>
+      <c r="G77">
+        <v>0.1448274248294017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04573008216298573</v>
+        <v>0.04230261982008016</v>
       </c>
       <c r="C78">
-        <v>0.05099747531464908</v>
+        <v>0.05759635378430478</v>
       </c>
       <c r="D78">
-        <v>-0.02715074149790537</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06309451947981735</v>
+      </c>
+      <c r="E78">
+        <v>-0.05293091161771688</v>
+      </c>
+      <c r="F78">
+        <v>-0.08246764087724105</v>
+      </c>
+      <c r="G78">
+        <v>-0.008225617563542859</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02795278507434814</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04527159855339</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06049909596957883</v>
+      </c>
+      <c r="E79">
+        <v>-0.06672114568777003</v>
+      </c>
+      <c r="F79">
+        <v>-0.02862689455113097</v>
+      </c>
+      <c r="G79">
+        <v>-0.0796893602312049</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03852804749305826</v>
+        <v>0.0301926263649328</v>
       </c>
       <c r="C80">
-        <v>0.05142437319623162</v>
+        <v>0.05131981788947678</v>
       </c>
       <c r="D80">
-        <v>-0.02559008401514489</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03873567609871599</v>
+      </c>
+      <c r="E80">
+        <v>-0.01536423903916565</v>
+      </c>
+      <c r="F80">
+        <v>-0.03518415986944081</v>
+      </c>
+      <c r="G80">
+        <v>0.04409535242842676</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1383616406216512</v>
+        <v>0.1382502712988897</v>
       </c>
       <c r="C81">
-        <v>0.08159891455837916</v>
+        <v>0.09707155758296421</v>
       </c>
       <c r="D81">
-        <v>0.07694705702092929</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1045651018563983</v>
+      </c>
+      <c r="E81">
+        <v>-0.08020254594053773</v>
+      </c>
+      <c r="F81">
+        <v>-0.005998722887087086</v>
+      </c>
+      <c r="G81">
+        <v>-0.052876665724674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1667414062707441</v>
+        <v>0.2064001717346436</v>
       </c>
       <c r="C82">
-        <v>0.0942823962481604</v>
+        <v>0.1566157717697385</v>
       </c>
       <c r="D82">
-        <v>0.1427568325302066</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2150425597915314</v>
+      </c>
+      <c r="E82">
+        <v>-0.007883952938143639</v>
+      </c>
+      <c r="F82">
+        <v>-0.1050218577604098</v>
+      </c>
+      <c r="G82">
+        <v>-0.05533091955529923</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03763559105955092</v>
+        <v>0.02620848290446004</v>
       </c>
       <c r="C83">
-        <v>0.03017359135301215</v>
+        <v>0.04237809457751021</v>
       </c>
       <c r="D83">
-        <v>-0.03528472882814074</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03246414146401502</v>
+      </c>
+      <c r="E83">
+        <v>-0.02314042408476703</v>
+      </c>
+      <c r="F83">
+        <v>-0.04127404728081516</v>
+      </c>
+      <c r="G83">
+        <v>0.02069815779733531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001181718649596522</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008019640843655549</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001141860158327956</v>
+      </c>
+      <c r="E84">
+        <v>-0.0005968400779956896</v>
+      </c>
+      <c r="F84">
+        <v>-0.0006126780390038232</v>
+      </c>
+      <c r="G84">
+        <v>0.0003860692319371369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2172086688229163</v>
+        <v>0.2012271191378988</v>
       </c>
       <c r="C85">
-        <v>0.1057802586134627</v>
+        <v>0.1182269175571595</v>
       </c>
       <c r="D85">
-        <v>0.117751593805183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09794991420679955</v>
+      </c>
+      <c r="E85">
+        <v>0.006430593378052736</v>
+      </c>
+      <c r="F85">
+        <v>0.01371169066307297</v>
+      </c>
+      <c r="G85">
+        <v>-0.1344954598760939</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005768419946463065</v>
+        <v>0.008361200693383992</v>
       </c>
       <c r="C86">
-        <v>0.03220301242026908</v>
+        <v>0.02231825421430863</v>
       </c>
       <c r="D86">
-        <v>-0.03362810215165123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05390110753423034</v>
+      </c>
+      <c r="E86">
+        <v>-0.06896205148550597</v>
+      </c>
+      <c r="F86">
+        <v>-0.1246820976290845</v>
+      </c>
+      <c r="G86">
+        <v>0.00795417761590495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02264036272989686</v>
+        <v>0.02168447679990458</v>
       </c>
       <c r="C87">
-        <v>0.00691007026264384</v>
+        <v>0.01509160508425024</v>
       </c>
       <c r="D87">
-        <v>-0.08383455128452912</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08421490793980191</v>
+      </c>
+      <c r="E87">
+        <v>-0.1198921697153807</v>
+      </c>
+      <c r="F87">
+        <v>-0.06070392175365</v>
+      </c>
+      <c r="G87">
+        <v>0.04404045470757532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1043976296534309</v>
+        <v>0.09191570582876565</v>
       </c>
       <c r="C88">
-        <v>0.07401799557879762</v>
+        <v>0.06334088169012621</v>
       </c>
       <c r="D88">
-        <v>0.02195524771365684</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005700846977587009</v>
+      </c>
+      <c r="E88">
+        <v>-0.04607356676408005</v>
+      </c>
+      <c r="F88">
+        <v>-0.06677477210055288</v>
+      </c>
+      <c r="G88">
+        <v>0.02169102617211319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1955175696164871</v>
+        <v>0.2258432106212326</v>
       </c>
       <c r="C89">
-        <v>-0.3738926384427469</v>
+        <v>-0.378030319402417</v>
       </c>
       <c r="D89">
-        <v>0.03215455917180587</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02315466691228672</v>
+      </c>
+      <c r="E89">
+        <v>-0.06684785691955782</v>
+      </c>
+      <c r="F89">
+        <v>-0.07451763355769239</v>
+      </c>
+      <c r="G89">
+        <v>0.06313497290797841</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1857280655786692</v>
+        <v>0.2044899348137358</v>
       </c>
       <c r="C90">
-        <v>-0.3303951151749285</v>
+        <v>-0.3097795521436533</v>
       </c>
       <c r="D90">
-        <v>0.03300817451320731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02447976521773595</v>
+      </c>
+      <c r="E90">
+        <v>-0.06926540163681945</v>
+      </c>
+      <c r="F90">
+        <v>-0.03385249019287658</v>
+      </c>
+      <c r="G90">
+        <v>0.01576815683291505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1866825756029658</v>
+        <v>0.1845481683469476</v>
       </c>
       <c r="C91">
-        <v>0.1302828489131478</v>
+        <v>0.1458921715914343</v>
       </c>
       <c r="D91">
-        <v>0.08784989799217788</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1040717245965389</v>
+      </c>
+      <c r="E91">
+        <v>-0.06061280955412934</v>
+      </c>
+      <c r="F91">
+        <v>-0.0308212263775475</v>
+      </c>
+      <c r="G91">
+        <v>-0.06019062400145669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1689058073846801</v>
+        <v>0.1842599950529044</v>
       </c>
       <c r="C92">
-        <v>-0.2768069108713335</v>
+        <v>-0.2837032068862867</v>
       </c>
       <c r="D92">
-        <v>0.01317901186246967</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01912584215655785</v>
+      </c>
+      <c r="E92">
+        <v>-0.07435676485244623</v>
+      </c>
+      <c r="F92">
+        <v>-0.08179399208721298</v>
+      </c>
+      <c r="G92">
+        <v>0.006558694084242991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2090287022591141</v>
+        <v>0.2269656364178245</v>
       </c>
       <c r="C93">
-        <v>-0.3306355408799125</v>
+        <v>-0.3150498995272568</v>
       </c>
       <c r="D93">
-        <v>0.03127242424120368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01770851179093552</v>
+      </c>
+      <c r="E93">
+        <v>-0.04469461928569277</v>
+      </c>
+      <c r="F93">
+        <v>-0.03343284733541767</v>
+      </c>
+      <c r="G93">
+        <v>-0.02866163108071493</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3430011327230386</v>
+        <v>0.3448031657012852</v>
       </c>
       <c r="C94">
-        <v>0.1737339565781067</v>
+        <v>0.2014886757324487</v>
       </c>
       <c r="D94">
-        <v>0.4860750446074636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5009437990293075</v>
+      </c>
+      <c r="E94">
+        <v>0.01197831795728151</v>
+      </c>
+      <c r="F94">
+        <v>0.4425777398441921</v>
+      </c>
+      <c r="G94">
+        <v>0.3466400204910485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1097681511861915</v>
+        <v>0.08224365684532318</v>
       </c>
       <c r="C95">
-        <v>0.07365948215915805</v>
+        <v>0.0632254577555464</v>
       </c>
       <c r="D95">
-        <v>-0.1398986954301059</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.169950577032855</v>
+      </c>
+      <c r="E95">
+        <v>0.1050926761371275</v>
+      </c>
+      <c r="F95">
+        <v>-0.2646340813927042</v>
+      </c>
+      <c r="G95">
+        <v>0.8508663562671164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.192511339739497</v>
+        <v>0.1859365601044079</v>
       </c>
       <c r="C98">
-        <v>0.01949037650075141</v>
+        <v>0.04187499611739151</v>
       </c>
       <c r="D98">
-        <v>-0.1507257418063739</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1973757079985965</v>
+      </c>
+      <c r="E98">
+        <v>0.1409651737676903</v>
+      </c>
+      <c r="F98">
+        <v>0.03033990425059832</v>
+      </c>
+      <c r="G98">
+        <v>-0.09587195304058677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006854496661553063</v>
+        <v>0.005505827712490907</v>
       </c>
       <c r="C101">
-        <v>0.03340092356875091</v>
+        <v>0.02927761556674532</v>
       </c>
       <c r="D101">
-        <v>0.01419988872459552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01837235222520246</v>
+      </c>
+      <c r="E101">
+        <v>-0.04642135605551836</v>
+      </c>
+      <c r="F101">
+        <v>-0.08195995958475655</v>
+      </c>
+      <c r="G101">
+        <v>-0.008832090380511826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.121557184958389</v>
+        <v>0.124150022905242</v>
       </c>
       <c r="C102">
-        <v>0.07478534931492342</v>
+        <v>0.1021580817971138</v>
       </c>
       <c r="D102">
-        <v>0.0239460617586032</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.03998015089052409</v>
+      </c>
+      <c r="E102">
+        <v>0.001774360179118454</v>
+      </c>
+      <c r="F102">
+        <v>-0.04618933299567933</v>
+      </c>
+      <c r="G102">
+        <v>-0.01895140566178471</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
